--- a/loadouts.xlsx
+++ b/loadouts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="81">
   <si>
     <t>Qty</t>
   </si>
@@ -34,7 +34,7 @@
     <t>Militia</t>
   </si>
   <si>
-    <t>Models: 1; Gear: Buckler $2, Hand Weapon $2, Abundant Resources $-2</t>
+    <t>Level: 0; Traits: None; Models: 1; Gear: Abundant Resources $-2, Buckler $2, Hand Weapon $2</t>
   </si>
   <si>
     <t>16</t>
@@ -88,7 +88,7 @@
     <t>Quarrelers</t>
   </si>
   <si>
-    <t>Models: 1; Gear: Crossbow $6, Buckler $2, Abundant Resources $-2</t>
+    <t>Level: 0; Traits: None; Models: 1; Gear: Abundant Resources $-2, Buckler $2, Crossbow $6</t>
   </si>
   <si>
     <t>20</t>
@@ -97,7 +97,7 @@
     <t>Warriors</t>
   </si>
   <si>
-    <t>Models: 1; Gear: Shield $4, Hand Weapon $2, Light Armor $4, Abundant Resources $-2</t>
+    <t>Level: 1; Traits: Coordinated Defensive Training ; Models: 1; Gear: Abundant Resources $-2, Hand Weapon $2, Light Armor $4, Shield $4</t>
   </si>
   <si>
     <t>26</t>
@@ -106,7 +106,7 @@
     <t>Guard</t>
   </si>
   <si>
-    <t>Models: 1; Gear: Hand Weapon $2, Shield $4, Medium Armor $10, Abundant Resources $-2</t>
+    <t>Level: 1; Traits: Coordinated Defensive Training ; Models: 1; Gear: Abundant Resources $-2, Hand Weapon $2, Medium Armor $10, Shield $4</t>
   </si>
   <si>
     <t>32</t>
@@ -115,7 +115,7 @@
     <t>Thunderwall</t>
   </si>
   <si>
-    <t>Models: 1; Gear: Flintlock Rifle $10, Heavy Armor $12, Shield $4, Abundant Resources $-2</t>
+    <t>Level: 1; Traits: Coordinated Defensive Training ; Models: 1; Gear: Abundant Resources $-2, Flintlock Rifle $10, Heavy Armor $12, Shield $4</t>
   </si>
   <si>
     <t>42</t>
@@ -124,13 +124,16 @@
     <t>Iron Breakers</t>
   </si>
   <si>
+    <t>Level: 2; Traits: Coordinated Defensive Training , Elite Training ; Models: 1; Gear: Abundant Resources $-2, Hand Weapon $2, Medium Armor $10, Shield $4</t>
+  </si>
+  <si>
     <t>71</t>
   </si>
   <si>
     <t>Iron Drakes</t>
   </si>
   <si>
-    <t>Models: 1; Gear: Shield $4, Medium Armor $10, Flintlock Rifle $10, Abundant Resources $-2</t>
+    <t>Level: 2; Traits: Coordinated Defensive Training , Elite Training ; Models: 1; Gear: Abundant Resources $-2, Flintlock Rifle $10, Medium Armor $10, Shield $4</t>
   </si>
   <si>
     <t>79</t>
@@ -139,7 +142,7 @@
     <t>Lord</t>
   </si>
   <si>
-    <t>Models: 1; Gear: Medium Armor $10, Shield $4, Hand Weapon $2, Abundant Resources $-2</t>
+    <t>Level: 3; Traits: Coordinated Defensive Training , Elite Training , Critical Thinking ; Models: 1; Gear: Abundant Resources $-2, Hand Weapon $2, Medium Armor $10, Shield $4</t>
   </si>
   <si>
     <t>108</t>
@@ -148,7 +151,7 @@
     <t>Longbeards</t>
   </si>
   <si>
-    <t>Models: 1; Gear: Two Handed Weapon $4, Light Armor $4, Abundant Resources $-2</t>
+    <t>Level: 1; Traits: None; Models: 1; Gear: Abundant Resources $-2, Light Armor $4, Two Handed Weapon $4</t>
   </si>
   <si>
     <t>23</t>
@@ -157,7 +160,7 @@
     <t>Hammerers</t>
   </si>
   <si>
-    <t>Models: 1; Gear: Two Handed Weapon $4, Medium Armor $10, Abundant Resources $-2</t>
+    <t>Level: 1; Traits: None; Models: 1; Gear: Abundant Resources $-2, Medium Armor $10, Two Handed Weapon $4</t>
   </si>
   <si>
     <t>29</t>
@@ -166,7 +169,7 @@
     <t>Thunderers</t>
   </si>
   <si>
-    <t>Models: 1; Gear: Light Armor $4, Shield $4, Flintlock Rifle $10, Abundant Resources $-2</t>
+    <t>Level: 1; Traits: Quick Targeting ; Models: 1; Gear: Abundant Resources $-2, Flintlock Rifle $10, Light Armor $4, Shield $4</t>
   </si>
   <si>
     <t>36</t>
@@ -175,7 +178,7 @@
     <t>Pirates</t>
   </si>
   <si>
-    <t>Models: 1; Gear: Shield $4, Flintlock Pistol $5, Abundant Resources $-2</t>
+    <t>Level: 1; Traits: Quick Targeting ; Models: 1; Gear: Abundant Resources $-2, Flintlock Pistol $5, Shield $4</t>
   </si>
   <si>
     <t>27</t>
@@ -184,7 +187,7 @@
     <t>Crew</t>
   </si>
   <si>
-    <t>Models: 1; Gear: Shield $4, Abundant Resources $-2</t>
+    <t>Level: 2; Traits: Quick Targeting , , Mercenaries; Models: 1; Gear: Abundant Resources $-2, Shield $4</t>
   </si>
   <si>
     <t>38</t>
@@ -193,7 +196,7 @@
     <t>Canon</t>
   </si>
   <si>
-    <t>Models: 3; Gear: Shield $4, Cannon x1 $60, Abundant Resources $-2</t>
+    <t>Level: 2; Traits: Quick Targeting , , Mercenaries; Models: 3; Gear: Abundant Resources $-2, Cannon x1 $60, Shield $4</t>
   </si>
   <si>
     <t>174</t>
@@ -202,7 +205,7 @@
     <t>Grudgethrower</t>
   </si>
   <si>
-    <t>Models: 3; Gear: Shield $4, Onager x1 $55, Abundant Resources $-2</t>
+    <t>Level: 2; Traits: Quick Targeting , , Mercenaries; Models: 3; Gear: Abundant Resources $-2, Onager x1 $55, Shield $4</t>
   </si>
   <si>
     <t>169</t>
@@ -211,7 +214,7 @@
     <t>Cannon Engineer</t>
   </si>
   <si>
-    <t>Models: 1; Gear: Shield $4, Cannon x1 $60, Advanced Heavy Weapons 1 x1 $15, Abundant Resources $-2, Mineral Riches $-1</t>
+    <t>Level: 3; Traits: Quick Targeting , Mercenaries, , , Engineering Marvels; Models: 1; Gear: Abundant Resources $-2, Advanced Heavy Weapons 1 x1 $15, Cannon x1 $60, Mineral Riches $-1, Shield $4</t>
   </si>
   <si>
     <t>137</t>
@@ -220,7 +223,7 @@
     <t>Cannon Battery</t>
   </si>
   <si>
-    <t>Models: 1; Gear: Shield $4, Cannon x3 $60, Advanced Heavy Weapons 1 x3 $15, Abundant Resources $-2, Mineral Riches $-1</t>
+    <t>Level: 3; Traits: Quick Targeting , Mercenaries, , , Engineering Marvels; Models: 1; Gear: Abundant Resources $-2, Advanced Heavy Weapons 1 x3 $15, Cannon x3 $60, Mineral Riches $-1, Shield $4</t>
   </si>
   <si>
     <t>287</t>
@@ -229,7 +232,7 @@
     <t>Grudge Engineer</t>
   </si>
   <si>
-    <t>Models: 1; Gear: Shield $4, Onager x1 $55, Advanced Heavy Weapons 1 x1 $15, Abundant Resources $-2, Mineral Riches $-1</t>
+    <t>Level: 3; Traits: Quick Targeting , Mercenaries, , , Engineering Marvels; Models: 1; Gear: Abundant Resources $-2, Advanced Heavy Weapons 1 x1 $15, Mineral Riches $-1, Onager x1 $55, Shield $4</t>
   </si>
   <si>
     <t>132</t>
@@ -238,7 +241,7 @@
     <t>GrudgeThrower Battery</t>
   </si>
   <si>
-    <t>Models: 1; Gear: Shield $4, Onager x3 $55, Advanced Heavy Weapons 1 x3 $15, Abundant Resources $-2, Mineral Riches $-1</t>
+    <t>Level: 3; Traits: Quick Targeting , Mercenaries, , , Engineering Marvels; Models: 1; Gear: Abundant Resources $-2, Advanced Heavy Weapons 1 x3 $15, Mineral Riches $-1, Onager x3 $55, Shield $4</t>
   </si>
   <si>
     <t>272</t>
@@ -247,7 +250,7 @@
     <t>Rangers</t>
   </si>
   <si>
-    <t>Models: 1; Gear: Light Armor $4, Shield $4, Crossbow $6, Abundant Resources $-2</t>
+    <t>Level: 1; Traits: Forward Observation ; Models: 1; Gear: Abundant Resources $-2, Crossbow $6, Light Armor $4, Shield $4</t>
   </si>
   <si>
     <t>28</t>
@@ -270,9 +273,8 @@
     </font>
     <font>
       <b/>
-      <u/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -285,12 +287,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -322,7 +330,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -633,7 +641,7 @@
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="4.7109375" customWidth="1"/>
     <col min="5" max="5" width="4.7109375" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" customWidth="1"/>
@@ -660,6 +668,12 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2">
@@ -785,6 +799,19 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>0</v>
@@ -909,6 +936,19 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>0</v>
@@ -1033,6 +1073,19 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
     <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>0</v>
@@ -1157,6 +1210,19 @@
         <v>0</v>
       </c>
     </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
     <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>0</v>
@@ -1281,6 +1347,19 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
     <row r="32" spans="1:11">
       <c r="A32" s="2">
         <v>0</v>
@@ -1289,10 +1368,10 @@
         <v>35</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E32" s="2">
         <f>A32 * D32</f>
@@ -1405,18 +1484,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
     <row r="38" spans="1:11">
       <c r="A38" s="2">
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" s="2">
         <f>A38 * D38</f>
@@ -1529,18 +1621,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
     <row r="44" spans="1:11">
       <c r="A44" s="2">
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E44" s="2">
         <f>A44 * D44</f>
@@ -1653,18 +1758,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+    </row>
     <row r="50" spans="1:11">
       <c r="A50" s="2">
         <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E50" s="2">
         <f>A50 * D50</f>
@@ -1777,18 +1895,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+    </row>
     <row r="56" spans="1:11">
       <c r="A56" s="2">
         <v>0</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E56" s="2">
         <f>A56 * D56</f>
@@ -1901,18 +2032,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+    </row>
     <row r="62" spans="1:11">
       <c r="A62" s="2">
         <v>0</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E62" s="2">
         <f>A62 * D62</f>
@@ -2025,18 +2169,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+    </row>
     <row r="68" spans="1:11">
       <c r="A68" s="2">
         <v>0</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E68" s="2">
         <f>A68 * D68</f>
@@ -2149,18 +2306,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+    </row>
     <row r="74" spans="1:11">
       <c r="A74" s="2">
         <v>0</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E74" s="2">
         <f>A74 * D74</f>
@@ -2273,18 +2443,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+    </row>
     <row r="80" spans="1:11">
       <c r="A80" s="2">
         <v>0</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E80" s="2">
         <f>A80 * D80</f>
@@ -2397,18 +2580,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+    </row>
     <row r="86" spans="1:11">
       <c r="A86" s="2">
         <v>0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E86" s="2">
         <f>A86 * D86</f>
@@ -2521,18 +2717,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+    </row>
     <row r="92" spans="1:11">
       <c r="A92" s="2">
         <v>0</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E92" s="2">
         <f>A92 * D92</f>
@@ -2645,18 +2854,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+    </row>
     <row r="98" spans="1:11">
       <c r="A98" s="2">
         <v>0</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E98" s="2">
         <f>A98 * D98</f>
@@ -2769,18 +2991,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+    </row>
     <row r="104" spans="1:11">
       <c r="A104" s="2">
         <v>0</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E104" s="2">
         <f>A104 * D104</f>
@@ -2893,18 +3128,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+    </row>
     <row r="110" spans="1:11">
       <c r="A110" s="2">
         <v>0</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E110" s="2">
         <f>A110 * D110</f>
@@ -3017,18 +3265,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+    </row>
     <row r="116" spans="1:11">
       <c r="A116" s="2">
         <v>0</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E116" s="2">
         <f>A116 * D116</f>
@@ -3141,9 +3402,22 @@
         <v>0</v>
       </c>
     </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+    </row>
     <row r="122" spans="1:11">
       <c r="A122" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
